--- a/public/Excel_example/other/international_journal_editor.xlsx
+++ b/public/Excel_example/other/international_journal_editor.xlsx
@@ -16,108 +16,44 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所屬一級</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>單位</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所屬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>系所部門</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>期刊編輯者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期刊名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>開始擔任時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>結束擔任時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬一級單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬系所部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,6 +67,21 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -155,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -464,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -480,31 +432,86 @@
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/Excel_example/other/international_journal_editor.xlsx
+++ b/public/Excel_example/other/international_journal_editor.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/public/Excel_example/other/international_journal_editor.xlsx
+++ b/public/Excel_example/other/international_journal_editor.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,13 +78,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,12 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -416,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A2" sqref="A2:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -432,7 +424,7 @@
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -454,60 +446,6 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/other/international_journal_editor.xlsx
+++ b/public/Excel_example/other/international_journal_editor.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G103"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
